--- a/Spreadsheet Interface/Examples/Pumped_Storage_Bad_Creek.xlsx
+++ b/Spreadsheet Interface/Examples/Pumped_Storage_Bad_Creek.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kleinschmidtgroup-my.sharepoint.com/personal/kevin_nebiolo_kleinschmidtgroup_com/Documents/Software/stryke/Spreadsheet Interface/Examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="48" documentId="8_{E1292F5E-0CCD-4ACC-BF68-E199A236ED11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C251EDD6-2AB8-46C2-BF5F-75759137779E}"/>
+  <xr:revisionPtr revIDLastSave="87" documentId="8_{E1292F5E-0CCD-4ACC-BF68-E199A236ED11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC98BBBA-EF97-4F6E-BB86-2E1E8BDDC9CD}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Background and Metadata" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="119">
   <si>
     <t>Purpose:</t>
   </si>
@@ -92,9 +92,6 @@
   </si>
   <si>
     <t>Months</t>
-  </si>
-  <si>
-    <t>Spring</t>
   </si>
   <si>
     <t>3,4,5</t>
@@ -407,7 +404,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -479,6 +476,12 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1008,7 +1011,7 @@
   <dimension ref="B2:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1060,7 +1063,7 @@
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1087,7 +1090,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.140625" style="22" customWidth="1"/>
@@ -1177,7 +1180,7 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C7" s="33">
         <v>1</v>
@@ -1187,15 +1190,15 @@
       </c>
       <c r="E7" s="32"/>
       <c r="H7" t="s">
+        <v>98</v>
+      </c>
+      <c r="I7" s="19" t="s">
         <v>99</v>
-      </c>
-      <c r="I7" s="19" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C8" s="42">
         <v>2</v>
@@ -1204,15 +1207,15 @@
         <v>35800</v>
       </c>
       <c r="H8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I8" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C9" s="33">
         <v>3</v>
@@ -1221,15 +1224,15 @@
         <v>35800</v>
       </c>
       <c r="H9" t="s">
+        <v>101</v>
+      </c>
+      <c r="I9" s="19" t="s">
         <v>102</v>
-      </c>
-      <c r="I9" s="19" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C10" s="42">
         <v>4</v>
@@ -1238,15 +1241,15 @@
         <v>35800</v>
       </c>
       <c r="H10" t="s">
+        <v>103</v>
+      </c>
+      <c r="I10" t="s">
         <v>104</v>
-      </c>
-      <c r="I10" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C11" s="33">
         <v>5</v>
@@ -1255,10 +1258,10 @@
         <v>35800</v>
       </c>
       <c r="H11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1291,7 +1294,7 @@
     </row>
     <row r="2" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="47" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="48"/>
@@ -1308,10 +1311,10 @@
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="37" t="s">
         <v>20</v>
-      </c>
-      <c r="C4" s="37" t="s">
-        <v>21</v>
       </c>
       <c r="E4" s="41"/>
       <c r="F4" s="41"/>
@@ -1326,16 +1329,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:BJ5"/>
+  <dimension ref="A1:BJ9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="36" customWidth="1"/>
-    <col min="2" max="3" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="30.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
@@ -1356,7 +1360,7 @@
     </row>
     <row r="2" spans="2:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="47" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="45"/>
@@ -1378,39 +1382,39 @@
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="37" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" s="37" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="37" t="s">
+      <c r="F4" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="37" t="s">
+      <c r="G4" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="37" t="s">
+      <c r="H4" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="37" t="s">
+      <c r="I4" s="37" t="s">
         <v>28</v>
-      </c>
-      <c r="I4" s="37" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" t="s">
         <v>107</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>108</v>
       </c>
       <c r="E5">
         <v>5</v>
@@ -1425,7 +1429,111 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>109</v>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1446,13 +1554,13 @@
   <dimension ref="A1:BG16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:E13"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
@@ -1488,7 +1596,7 @@
     </row>
     <row r="2" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="44" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="45"/>
@@ -1553,72 +1661,72 @@
     </row>
     <row r="5" spans="2:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="E5" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="F5" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="G5" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="H5" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="I5" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="J5" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="K5" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="L5" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="M5" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="M5" s="6" t="s">
+      <c r="N5" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="N5" s="20" t="s">
+      <c r="O5" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="O5" s="20" t="s">
+      <c r="P5" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="P5" s="20" t="s">
+      <c r="Q5" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="Q5" s="6" t="s">
+      <c r="R5" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="R5" s="6" t="s">
+      <c r="S5" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="S5" s="20" t="s">
+      <c r="T5" s="20" t="s">
         <v>47</v>
-      </c>
-      <c r="T5" s="20" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="6" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1642,18 +1750,18 @@
       <c r="S6" s="7"/>
       <c r="T6" s="7"/>
       <c r="V6" s="34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1677,18 +1785,18 @@
       <c r="S7" s="7"/>
       <c r="T7" s="7"/>
       <c r="V7" s="34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1707,18 +1815,18 @@
       <c r="S8" s="7"/>
       <c r="T8" s="7"/>
       <c r="V8" s="34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1739,13 +1847,13 @@
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1766,13 +1874,13 @@
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1793,13 +1901,13 @@
     </row>
     <row r="12" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1818,13 +1926,13 @@
     </row>
     <row r="13" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1899,14 +2007,14 @@
   <dimension ref="A1:BC49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10:I49"/>
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="29" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" style="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" style="33" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="33" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
@@ -1928,7 +2036,7 @@
     </row>
     <row r="2" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B2" s="50" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C2" s="51"/>
       <c r="D2" s="45"/>
@@ -2025,7 +2133,7 @@
       <c r="E8" s="29"/>
       <c r="F8" s="29"/>
       <c r="G8" s="49" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H8" s="45"/>
       <c r="I8" s="45"/>
@@ -2037,33 +2145,36 @@
         <v>9</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E9" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="G9" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="H9" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="I9" s="10" t="s">
         <v>58</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="10" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
+      </c>
+      <c r="D10" t="s">
+        <v>109</v>
       </c>
       <c r="F10">
         <v>0.157427937915742</v>
@@ -2080,10 +2191,13 @@
     </row>
     <row r="11" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
+      </c>
+      <c r="D11" t="s">
+        <v>109</v>
       </c>
       <c r="F11">
         <v>0.230598669623059</v>
@@ -2100,10 +2214,13 @@
     </row>
     <row r="12" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
+      </c>
+      <c r="D12" t="s">
+        <v>109</v>
       </c>
       <c r="F12">
         <v>0.25498891352549802</v>
@@ -2120,10 +2237,13 @@
     </row>
     <row r="13" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
+      </c>
+      <c r="D13" t="s">
+        <v>109</v>
       </c>
       <c r="F13">
         <v>0.27937915742793701</v>
@@ -2140,10 +2260,13 @@
     </row>
     <row r="14" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="C14" s="33" t="s">
-        <v>107</v>
+      <c r="D14" t="s">
+        <v>109</v>
       </c>
       <c r="F14">
         <v>0.27937915742793701</v>
@@ -2160,10 +2283,13 @@
     </row>
     <row r="15" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
+      </c>
+      <c r="D15" t="s">
+        <v>110</v>
       </c>
       <c r="F15">
         <v>0.30869565217391298</v>
@@ -2180,10 +2306,13 @@
     </row>
     <row r="16" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
+      </c>
+      <c r="D16" t="s">
+        <v>110</v>
       </c>
       <c r="F16">
         <v>0.41956521739130398</v>
@@ -2200,10 +2329,13 @@
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
+      </c>
+      <c r="D17" t="s">
+        <v>110</v>
       </c>
       <c r="F17">
         <v>0.41086956521739099</v>
@@ -2220,10 +2352,13 @@
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
+      </c>
+      <c r="D18" t="s">
+        <v>110</v>
       </c>
       <c r="F18">
         <v>0.48695652173913001</v>
@@ -2240,10 +2375,13 @@
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="C19" s="33" t="s">
-        <v>107</v>
+      <c r="D19" t="s">
+        <v>110</v>
       </c>
       <c r="F19">
         <v>0.48695652173913001</v>
@@ -2260,10 +2398,13 @@
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
+      </c>
+      <c r="D20" t="s">
+        <v>111</v>
       </c>
       <c r="F20">
         <v>5.2173913043478203E-2</v>
@@ -2280,10 +2421,13 @@
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C21" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
+      </c>
+      <c r="D21" t="s">
+        <v>111</v>
       </c>
       <c r="F21">
         <v>7.82608695652173E-2</v>
@@ -2300,10 +2444,13 @@
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C22" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
+      </c>
+      <c r="D22" t="s">
+        <v>111</v>
       </c>
       <c r="F22">
         <v>6.3043478260869507E-2</v>
@@ -2320,10 +2467,13 @@
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C23" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
+      </c>
+      <c r="D23" t="s">
+        <v>111</v>
       </c>
       <c r="F23">
         <v>6.0869565217391203E-2</v>
@@ -2340,10 +2490,13 @@
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C24" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="C24" s="33" t="s">
-        <v>107</v>
+      <c r="D24" t="s">
+        <v>111</v>
       </c>
       <c r="F24">
         <v>6.0869565217391203E-2</v>
@@ -2360,10 +2513,13 @@
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C25" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
+      </c>
+      <c r="D25" t="s">
+        <v>112</v>
       </c>
       <c r="F25">
         <v>0.29230769230769199</v>
@@ -2380,10 +2536,13 @@
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C26" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
+      </c>
+      <c r="D26" t="s">
+        <v>112</v>
       </c>
       <c r="F26">
         <v>0.27032967032966998</v>
@@ -2400,10 +2559,13 @@
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C27" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
+      </c>
+      <c r="D27" t="s">
+        <v>112</v>
       </c>
       <c r="F27">
         <v>0.118681318681318</v>
@@ -2420,10 +2582,13 @@
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C28" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
+      </c>
+      <c r="D28" t="s">
+        <v>112</v>
       </c>
       <c r="F28">
         <v>0.10549450549450499</v>
@@ -2440,10 +2605,13 @@
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
+        <v>97</v>
+      </c>
+      <c r="C29" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="C29" s="33" t="s">
-        <v>107</v>
+      <c r="D29" t="s">
+        <v>112</v>
       </c>
       <c r="F29">
         <v>0.10549450549450499</v>
@@ -2460,10 +2628,13 @@
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C30" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
+      </c>
+      <c r="D30" t="s">
+        <v>113</v>
       </c>
       <c r="F30">
         <v>0.157427937915742</v>
@@ -2480,10 +2651,13 @@
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C31" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
+      </c>
+      <c r="D31" t="s">
+        <v>113</v>
       </c>
       <c r="F31">
         <v>0.230598669623059</v>
@@ -2500,10 +2674,13 @@
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C32" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
+      </c>
+      <c r="D32" t="s">
+        <v>113</v>
       </c>
       <c r="F32">
         <v>0.25498891352549802</v>
@@ -2520,10 +2697,13 @@
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C33" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
+      </c>
+      <c r="D33" t="s">
+        <v>113</v>
       </c>
       <c r="F33">
         <v>0.27937915742793701</v>
@@ -2540,10 +2720,13 @@
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
+        <v>97</v>
+      </c>
+      <c r="C34" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="C34" s="33" t="s">
-        <v>107</v>
+      <c r="D34" t="s">
+        <v>113</v>
       </c>
       <c r="F34">
         <v>0.27937915742793701</v>
@@ -2560,10 +2743,13 @@
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C35" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
+      </c>
+      <c r="D35" t="s">
+        <v>114</v>
       </c>
       <c r="F35">
         <v>0.30869565217391298</v>
@@ -2580,10 +2766,13 @@
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C36" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
+      </c>
+      <c r="D36" t="s">
+        <v>114</v>
       </c>
       <c r="F36">
         <v>0.41956521739130398</v>
@@ -2600,10 +2789,13 @@
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C37" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
+      </c>
+      <c r="D37" t="s">
+        <v>114</v>
       </c>
       <c r="F37">
         <v>0.41086956521739099</v>
@@ -2620,10 +2812,13 @@
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C38" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
+      </c>
+      <c r="D38" t="s">
+        <v>114</v>
       </c>
       <c r="F38">
         <v>0.48695652173913001</v>
@@ -2640,10 +2835,13 @@
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
+        <v>97</v>
+      </c>
+      <c r="C39" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="C39" s="33" t="s">
-        <v>107</v>
+      <c r="D39" t="s">
+        <v>114</v>
       </c>
       <c r="F39">
         <v>0.48695652173913001</v>
@@ -2660,10 +2858,13 @@
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C40" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
+      </c>
+      <c r="D40" t="s">
+        <v>115</v>
       </c>
       <c r="F40">
         <v>5.2173913043478203E-2</v>
@@ -2680,10 +2881,13 @@
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C41" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
+      </c>
+      <c r="D41" t="s">
+        <v>115</v>
       </c>
       <c r="F41">
         <v>7.82608695652173E-2</v>
@@ -2700,10 +2904,13 @@
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C42" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
+      </c>
+      <c r="D42" t="s">
+        <v>115</v>
       </c>
       <c r="F42">
         <v>6.3043478260869507E-2</v>
@@ -2720,10 +2927,13 @@
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C43" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
+      </c>
+      <c r="D43" t="s">
+        <v>115</v>
       </c>
       <c r="F43">
         <v>6.0869565217391203E-2</v>
@@ -2740,10 +2950,13 @@
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
+        <v>97</v>
+      </c>
+      <c r="C44" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="C44" s="33" t="s">
-        <v>107</v>
+      <c r="D44" t="s">
+        <v>115</v>
       </c>
       <c r="F44">
         <v>6.0869565217391203E-2</v>
@@ -2760,10 +2973,13 @@
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C45" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
+      </c>
+      <c r="D45" t="s">
+        <v>116</v>
       </c>
       <c r="F45">
         <v>0.29230769230769199</v>
@@ -2780,10 +2996,13 @@
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C46" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
+      </c>
+      <c r="D46" t="s">
+        <v>116</v>
       </c>
       <c r="F46">
         <v>0.27032967032966998</v>
@@ -2800,10 +3019,13 @@
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C47" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
+      </c>
+      <c r="D47" t="s">
+        <v>116</v>
       </c>
       <c r="F47">
         <v>0.118681318681318</v>
@@ -2820,10 +3042,13 @@
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C48" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
+      </c>
+      <c r="D48" t="s">
+        <v>116</v>
       </c>
       <c r="F48">
         <v>0.10549450549450499</v>
@@ -2840,10 +3065,13 @@
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
+        <v>97</v>
+      </c>
+      <c r="C49" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="C49" s="33" t="s">
-        <v>107</v>
+      <c r="D49" t="s">
+        <v>116</v>
       </c>
       <c r="F49">
         <v>0.10549450549450499</v>
@@ -2863,6 +3091,7 @@
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="B2:L6"/>
   </mergeCells>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2871,7 +3100,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AU1747"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -2895,7 +3124,7 @@
     </row>
     <row r="2" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="44" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="45"/>
@@ -2977,13 +3206,13 @@
     </row>
     <row r="10" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="D10" s="10" t="s">
         <v>62</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>63</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -2993,10 +3222,10 @@
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" t="s">
         <v>64</v>
-      </c>
-      <c r="C11" t="s">
-        <v>65</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -3009,10 +3238,10 @@
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -3025,10 +3254,10 @@
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -3041,10 +3270,10 @@
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -3057,10 +3286,10 @@
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -3073,10 +3302,10 @@
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -3089,10 +3318,10 @@
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -3105,10 +3334,10 @@
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -3121,10 +3350,10 @@
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -3137,10 +3366,10 @@
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -3153,10 +3382,10 @@
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -3169,10 +3398,10 @@
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -15300,7 +15529,7 @@
     </row>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="44" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C2" s="53"/>
       <c r="D2" s="53"/>
@@ -15365,13 +15594,13 @@
     </row>
     <row r="9" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="D9" s="10" t="s">
         <v>70</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>71</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -15380,10 +15609,10 @@
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -15395,10 +15624,10 @@
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -15410,10 +15639,10 @@
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -15425,10 +15654,10 @@
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -15440,10 +15669,10 @@
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -15455,10 +15684,10 @@
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -15470,10 +15699,10 @@
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -15485,10 +15714,10 @@
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -15500,10 +15729,10 @@
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -15515,10 +15744,10 @@
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -15530,10 +15759,10 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -15545,10 +15774,10 @@
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -15560,10 +15789,10 @@
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -15575,10 +15804,10 @@
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -15590,10 +15819,10 @@
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -15605,10 +15834,10 @@
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -15620,10 +15849,10 @@
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -15635,10 +15864,10 @@
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" t="s">
         <v>66</v>
-      </c>
-      <c r="C27" t="s">
-        <v>67</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -26476,7 +26705,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:HA17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D13" sqref="D13:D17"/>
     </sheetView>
   </sheetViews>
@@ -26523,7 +26752,7 @@
     </row>
     <row r="2" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B2" s="55" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="51"/>
@@ -26703,7 +26932,7 @@
       <c r="R10" s="27"/>
       <c r="S10" s="12"/>
       <c r="T10" s="26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -26711,10 +26940,10 @@
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" s="54" t="s">
         <v>74</v>
-      </c>
-      <c r="F11" s="54" t="s">
-        <v>75</v>
       </c>
       <c r="G11" s="45"/>
       <c r="H11" s="45"/>
@@ -26726,7 +26955,7 @@
       <c r="N11" s="11"/>
       <c r="O11" s="11"/>
       <c r="P11" s="54" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q11" s="45"/>
       <c r="R11" s="45"/>
@@ -26734,72 +26963,72 @@
     </row>
     <row r="12" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="15" t="s">
         <v>77</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>78</v>
       </c>
       <c r="D12" s="31" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="I12" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="H12" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="I12" s="16" t="s">
+      <c r="J12" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="J12" s="16" t="s">
+      <c r="K12" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="K12" s="16" t="s">
+      <c r="L12" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="L12" s="16" t="s">
+      <c r="M12" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="M12" s="16" t="s">
+      <c r="N12" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="N12" s="16" t="s">
+      <c r="O12" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="O12" s="16" t="s">
+      <c r="P12" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="P12" s="16" t="s">
+      <c r="Q12" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="Q12" s="16" t="s">
+      <c r="R12" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="R12" s="16" t="s">
+      <c r="S12" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="S12" s="17" t="s">
+      <c r="T12" s="26" t="s">
         <v>90</v>
-      </c>
-      <c r="T12" s="26" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C13" s="43" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F13">
         <v>1.6677890787429801</v>
@@ -26811,7 +27040,7 @@
         <v>0.13978264475861699</v>
       </c>
       <c r="I13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J13">
         <v>8.3073622402890699</v>
@@ -26835,13 +27064,13 @@
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C14" s="43" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F14">
         <v>1.9632354735570401</v>
@@ -26853,7 +27082,7 @@
         <v>0.17219812527720901</v>
       </c>
       <c r="I14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J14">
         <v>6.6241880672774904</v>
@@ -26876,13 +27105,13 @@
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C15" s="43" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F15">
         <v>1.8322704983659699</v>
@@ -26894,7 +27123,7 @@
         <v>0.17455236557829301</v>
       </c>
       <c r="I15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J15">
         <v>9.0341764528756396</v>
@@ -26917,13 +27146,13 @@
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C16" s="43" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F16">
         <v>1.45502786511021</v>
@@ -26935,7 +27164,7 @@
         <v>0.16737510928461499</v>
       </c>
       <c r="I16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J16">
         <v>4.2572309210746404</v>
@@ -26958,13 +27187,13 @@
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C17" s="43" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F17">
         <v>0.587869776161837</v>
@@ -26976,7 +27205,7 @@
         <v>1.56050687235471</v>
       </c>
       <c r="I17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J17">
         <v>8.62691960252935</v>
